--- a/data/trans_dic/P79$hipoteca_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P79$hipoteca_2023-Clase-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.01057523883975916</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.008466562923006181</v>
+        <v>0.008466562923006179</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.009587767750407017</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.004200877153570607</v>
+        <v>0.004145988103594302</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003182709547492383</v>
+        <v>0.003152462111784578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004770051642794845</v>
+        <v>0.004784076912266129</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02284211665192218</v>
+        <v>0.02349559339897179</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01993659217975147</v>
+        <v>0.01822200355660205</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01709334839043417</v>
+        <v>0.01756320385032968</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.01067553629540019</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01523875042610383</v>
+        <v>0.01523875042610384</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008881092021514681</v>
+        <v>0.008690433248104906</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003854890106375808</v>
+        <v>0.003907531904600454</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008913288971509749</v>
+        <v>0.008419618606826215</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03812828132245912</v>
+        <v>0.0366856767068988</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02293519589929507</v>
+        <v>0.02194916209696854</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0255242466955842</v>
+        <v>0.0252828746027424</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.01193546768763796</v>
+        <v>0.01193546768763795</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.008508994046392507</v>
+        <v>0.008508994046392505</v>
       </c>
     </row>
     <row r="11">
@@ -691,11 +691,11 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004354474277318699</v>
+        <v>0.003702880404360831</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.003072745361358359</v>
+        <v>0.002894313937597438</v>
       </c>
     </row>
     <row r="12">
@@ -706,11 +706,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02519312624323017</v>
+        <v>0.02536782120659887</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.01820362689716111</v>
+        <v>0.01862079040381262</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.009316195250073014</v>
+        <v>0.00931619525007301</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.009226800698438882</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004704253914423639</v>
+        <v>0.004787492969294443</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004492660640424119</v>
+        <v>0.004846763526313819</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005385014489478671</v>
+        <v>0.005612700567072922</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01710900075811517</v>
+        <v>0.01703803395104913</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01638730045138812</v>
+        <v>0.01647591066928788</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01437695622451831</v>
+        <v>0.01439990590991467</v>
       </c>
     </row>
     <row r="16">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.004098455700883108</v>
+        <v>0.004098455700883107</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.00998607366706507</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.007626019549578584</v>
+        <v>0.007626019549578586</v>
       </c>
     </row>
     <row r="17">
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.005330595602229694</v>
+        <v>0.004695881342166485</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003955365965093373</v>
+        <v>0.003953458330850356</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01352936036908332</v>
+        <v>0.01345174402992361</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01816284548323344</v>
+        <v>0.01800633193583995</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01292226009772657</v>
+        <v>0.01320756674888179</v>
       </c>
     </row>
     <row r="19">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.00062791328952501</v>
+        <v>0.0007368642222447181</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04529657690759985</v>
+        <v>0.04320596856379972</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.00594160672323132</v>
+        <v>0.006174716551722034</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01097036016238007</v>
+        <v>0.01077411198987183</v>
       </c>
     </row>
     <row r="22">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.007060272656645319</v>
+        <v>0.007113050654990767</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.005209682318253791</v>
+        <v>0.004943043656348617</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006747682881905587</v>
+        <v>0.006740721019337621</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01450703548014373</v>
+        <v>0.01441652504773613</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01009525001753512</v>
+        <v>0.01022100343706778</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01120923780433709</v>
+        <v>0.01133718088243968</v>
       </c>
     </row>
     <row r="25">
@@ -1074,13 +1074,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2289</v>
+        <v>2259</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1527</v>
+        <v>1513</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4889</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="7">
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12447</v>
+        <v>12803</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9568</v>
+        <v>8745</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17518</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="8">
@@ -1146,13 +1146,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4232</v>
+        <v>4141</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1613</v>
+        <v>1635</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7978</v>
+        <v>7536</v>
       </c>
     </row>
     <row r="11">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18170</v>
+        <v>17482</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9598</v>
+        <v>9185</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22845</v>
+        <v>22629</v>
       </c>
     </row>
     <row r="12">
@@ -1218,11 +1218,11 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2005</v>
+        <v>1705</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>1984</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="15">
@@ -1233,11 +1233,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11597</v>
+        <v>11678</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>11754</v>
+        <v>12024</v>
       </c>
     </row>
     <row r="16">
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5220</v>
+        <v>5312</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3717</v>
+        <v>4010</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10431</v>
+        <v>10872</v>
       </c>
     </row>
     <row r="19">
@@ -1303,13 +1303,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18984</v>
+        <v>18905</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13559</v>
+        <v>13633</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>27848</v>
+        <v>27893</v>
       </c>
     </row>
     <row r="20">
@@ -1361,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4249</v>
+        <v>3743</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5263</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="23">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7216</v>
+        <v>7174</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14479</v>
+        <v>14354</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>17193</v>
+        <v>17573</v>
       </c>
     </row>
     <row r="24">
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>634</v>
+        <v>744</v>
       </c>
     </row>
     <row r="27">
@@ -1447,13 +1447,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9634</v>
+        <v>9190</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4736</v>
+        <v>4921</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11077</v>
+        <v>10879</v>
       </c>
     </row>
     <row r="28">
@@ -1502,13 +1502,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>23563</v>
+        <v>23739</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>18262</v>
+        <v>17327</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>46173</v>
+        <v>46126</v>
       </c>
     </row>
     <row r="31">
@@ -1519,13 +1519,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>48416</v>
+        <v>48114</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>35388</v>
+        <v>35829</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>76703</v>
+        <v>77578</v>
       </c>
     </row>
     <row r="32">
